--- a/doc/PixiePico_Pin_Assignment.xlsx
+++ b/doc/PixiePico_Pin_Assignment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/PCOLLA/Documents/GitHub/PixiePico/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07DCC8B0-F541-834D-B543-875C26780905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1599A80-390D-EF40-A430-842063D6D185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15600" xr2:uid="{76858976-020E-E444-B875-0541BBF74B55}"/>
+    <workbookView xWindow="780" yWindow="880" windowWidth="27640" windowHeight="15600" xr2:uid="{76858976-020E-E444-B875-0541BBF74B55}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="59">
   <si>
     <t>GPIO1</t>
   </si>
@@ -115,15 +115,6 @@
     <t>GPIO28</t>
   </si>
   <si>
-    <t>ADC0</t>
-  </si>
-  <si>
-    <t>ADC1</t>
-  </si>
-  <si>
-    <t>ADC2</t>
-  </si>
-  <si>
     <t>ADX-rp2040</t>
   </si>
   <si>
@@ -172,21 +163,12 @@
     <t>PixiePico</t>
   </si>
   <si>
-    <t>I2C SDA0</t>
-  </si>
-  <si>
-    <t>I2C SCL0</t>
-  </si>
-  <si>
     <t>Audio IN</t>
   </si>
   <si>
     <t>FAN</t>
   </si>
   <si>
-    <t>PTT</t>
-  </si>
-  <si>
     <t>RGB LED</t>
   </si>
   <si>
@@ -202,16 +184,7 @@
     <t>rp2040 (P)</t>
   </si>
   <si>
-    <t>rp2040(S)</t>
-  </si>
-  <si>
     <t>rp2040Z(P)</t>
-  </si>
-  <si>
-    <t>SDA0</t>
-  </si>
-  <si>
-    <t>SCL0</t>
   </si>
   <si>
     <t>GND</t>
@@ -431,9 +404,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -446,13 +419,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -461,19 +434,16 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -482,19 +452,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -503,9 +470,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -513,6 +477,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -536,13 +503,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
@@ -882,48 +849,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{865F6F77-3EB0-2640-BE53-DD0B4217A0B3}">
-  <dimension ref="B1:I45"/>
+  <dimension ref="B1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" s="6">
         <v>1</v>
       </c>
@@ -931,14 +890,12 @@
         <v>1</v>
       </c>
       <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" s="6">
         <v>2</v>
       </c>
@@ -946,227 +903,199 @@
         <v>0</v>
       </c>
       <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="7" t="s">
+      <c r="E4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" s="6">
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="9"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E5" s="10"/>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" s="6">
         <v>4</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
+      <c r="D6" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F6" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" s="6">
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="D7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" s="6">
         <v>6</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="D8" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" s="6">
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="7" t="s">
+      <c r="D9" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" s="6">
         <v>8</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="9"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E10" s="10"/>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" s="6">
         <v>9</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="D11" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="9"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" s="6">
         <v>10</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="7" t="s">
+      <c r="D12" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" s="6">
         <v>11</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="D13" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="9"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" s="6">
         <v>12</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="D14" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F14" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" s="6">
         <v>13</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="9"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E15" s="10"/>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" s="6">
         <v>14</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="7" t="s">
+      <c r="D16" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="9"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" s="6">
         <v>15</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="D17" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="9"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" s="6">
         <v>16</v>
       </c>
@@ -1174,18 +1103,14 @@
         <v>12</v>
       </c>
       <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="7" t="s">
+      <c r="E18" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F18" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" s="6">
         <v>17</v>
       </c>
@@ -1193,31 +1118,25 @@
         <v>13</v>
       </c>
       <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="7" t="s">
+      <c r="E19" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F19" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" s="6">
         <v>18</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="9"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E20" s="10"/>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21" s="6">
         <v>19</v>
       </c>
@@ -1225,88 +1144,72 @@
         <v>14</v>
       </c>
       <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="7" t="s">
+      <c r="E21" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="8"/>
-      <c r="H21" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F21" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B22" s="6">
         <v>20</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F22" s="7" t="s">
+      <c r="D22" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G22" s="8"/>
-      <c r="H22" s="9"/>
-    </row>
-    <row r="23" spans="2:9" ht="4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="2:7" ht="4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="6"/>
       <c r="C23" s="10"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D23" s="14"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B24" s="6">
         <v>21</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F24" s="17"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="9"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D24" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="16"/>
+      <c r="F24" s="9"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B25" s="6">
         <v>22</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F25" s="17"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="9"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D25" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="16"/>
+      <c r="F25" s="9"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B26" s="6">
         <v>23</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="9"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E26" s="16"/>
+      <c r="F26" s="9"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B27" s="6">
         <v>24</v>
       </c>
@@ -1314,12 +1217,10 @@
         <v>18</v>
       </c>
       <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="9"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E27" s="16"/>
+      <c r="F27" s="9"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B28" s="6">
         <v>25</v>
       </c>
@@ -1327,12 +1228,10 @@
         <v>19</v>
       </c>
       <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="9"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E28" s="16"/>
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B29" s="6">
         <v>26</v>
       </c>
@@ -1340,12 +1239,10 @@
         <v>20</v>
       </c>
       <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="9"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E29" s="16"/>
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B30" s="6">
         <v>27</v>
       </c>
@@ -1353,23 +1250,19 @@
         <v>21</v>
       </c>
       <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="9"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E30" s="16"/>
+      <c r="F30" s="9"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B31" s="6">
         <v>28</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="9"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E31" s="16"/>
+      <c r="F31" s="9"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B32" s="6">
         <v>29</v>
       </c>
@@ -1377,214 +1270,178 @@
         <v>22</v>
       </c>
       <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="9"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E32" s="16"/>
+      <c r="F32" s="9"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" s="6">
         <v>30</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="9"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E33" s="16"/>
+      <c r="F33" s="9"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34" s="6">
         <v>31</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D34" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E34" s="8"/>
-      <c r="F34" s="7" t="s">
+      <c r="D34" s="8"/>
+      <c r="E34" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G34" s="8"/>
-      <c r="H34" s="19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F34" s="28"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" s="6">
         <v>32</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D35" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E35" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="F35" s="7" t="s">
+      <c r="D35" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G35" s="8"/>
-      <c r="H35" s="9"/>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F35" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36" s="6">
         <v>33</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="9"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E36" s="10"/>
+      <c r="F36" s="9"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" s="6">
         <v>34</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D37" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E37" s="8"/>
-      <c r="F37" s="7" t="s">
+      <c r="D37" s="8"/>
+      <c r="E37" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G37" s="8"/>
-      <c r="H37" s="9"/>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F37" s="9"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38" s="6">
         <v>35</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="9"/>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E38" s="10"/>
+      <c r="F38" s="9"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B39" s="6">
         <v>36</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D39" s="8"/>
-      <c r="E39" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="F39" s="10"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="9"/>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E39" s="10"/>
+      <c r="F39" s="9"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B40" s="6">
         <v>37</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="G40" s="8"/>
-      <c r="H40" s="9"/>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E40" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="F40" s="9"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B41" s="6">
         <v>38</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D41" s="8"/>
-      <c r="E41" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G41" s="8"/>
-      <c r="H41" s="30" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F41" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B42" s="6">
         <v>39</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="G42" s="8"/>
-      <c r="H42" s="29" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E42" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F42" s="26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B43" s="6">
         <v>40</v>
       </c>
-      <c r="C43" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="D43" s="8"/>
-      <c r="E43" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="F43" s="10"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="9"/>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B44" s="22"/>
-      <c r="C44" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E44" s="8"/>
-      <c r="F44" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="G44" s="18"/>
-      <c r="H44" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="23"/>
-      <c r="C45" s="24"/>
+      <c r="C43" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E43" s="10"/>
+      <c r="F43" s="9"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B44" s="20"/>
+      <c r="C44" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="21"/>
+      <c r="C45" s="22"/>
       <c r="D45" s="23"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="26" t="s">
+      <c r="E45" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="G45" s="27"/>
-      <c r="H45" s="28" t="s">
-        <v>50</v>
+      <c r="F45" s="25" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
